--- a/EE01.xlsx
+++ b/EE01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olimo\remise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA76B305-DA41-4B86-AF07-E45593FADF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A70D91F-82D8-4326-8F05-55D38559B1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;$&quot;"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +267,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -786,12 +800,11 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
@@ -1055,6 +1068,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2234,6 +2253,3112 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Croissance 2019</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$C$24:$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trimestre 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trimestre 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Trimestre 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$C$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-2040.6999999999971</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4760.260000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4410.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1936.1299999999974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5565-4DD2-A727-7B69A9605B69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="442794591"/>
+        <c:axId val="442791679"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="442794591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442791679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="442791679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442794591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Vente 2009</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$9:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Courantes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Assurances</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fournitures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$C$9:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1988.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7832.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2337.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4336.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05F2-4FDE-8F5D-05086D544B10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$9:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Courantes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Assurances</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fournitures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2897.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8309.0499999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11299.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2137.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1790.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-05F2-4FDE-8F5D-05086D544B10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$9:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Courantes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Assurances</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fournitures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$E$9:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5223.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4287.9799999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8264.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1237.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1206.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-05F2-4FDE-8F5D-05086D544B10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$9:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Courantes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Assurances</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fournitures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$F$9:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7996.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9352.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13226.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3237.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1628.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-05F2-4FDE-8F5D-05086D544B10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="848280303"/>
+        <c:axId val="848279471"/>
+        <c:axId val="686886191"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="848280303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848279471"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="848279471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848280303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="686886191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848279471"/>
+        <c:crossesAt val="0"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8854317311808898"/>
+          <c:y val="3.3804230917945037E-2"/>
+          <c:w val="0.11269495355159075"/>
+          <c:h val="0.6263822237229576"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Dépense 2009</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45920262971936199"/>
+          <c:y val="3.4807547153263382E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$18:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Résidentiel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Automobile</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$C$18:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12462.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2533.2399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8755.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0448-4ADE-8276-7734E7357810}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$18:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Résidentiel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Automobile</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$D$18:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8256.9699999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5855.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7562.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0448-4ADE-8276-7734E7357810}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:tint val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$18:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Résidentiel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Automobile</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$E$18:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10884.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8525.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5221.5600000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0448-4ADE-8276-7734E7357810}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Données brutes'!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trimestre 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Données brutes'!$B$18:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Résidentiel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Automobile</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Données brutes'!$F$18:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18995.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11253.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3256.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0448-4ADE-8276-7734E7357810}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="418918239"/>
+        <c:axId val="418919903"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="418918239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418919903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="418919903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418918239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2327,6 +5452,119 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>131331</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>618563</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>51996</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF31553-62A4-703E-B1E8-8B4F9C47B3A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>607261</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>122816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>421342</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DBAC092-1835-C33C-4786-58F8C84A0FC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>376518</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>35857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B587F4EC-22A2-A155-0A4A-61F9A6B16C3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2667,426 +5905,426 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
-    <col min="2" max="7" width="11.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" style="3" customWidth="1"/>
-    <col min="9" max="15" width="9.109375" style="3"/>
-    <col min="16" max="16" width="9.109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="3"/>
-    <col min="18" max="18" width="1.6640625" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="1.6640625" style="2" customWidth="1"/>
+    <col min="2" max="7" width="11.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" style="2" customWidth="1"/>
+    <col min="9" max="15" width="9.109375" style="2"/>
+    <col min="16" max="16" width="9.109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="1.6640625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
     </row>
     <row r="3" spans="2:17" ht="3.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
     </row>
     <row r="5" spans="2:17" ht="3.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:17" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:17" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="37"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:17" s="5" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
+    <row r="8" spans="2:17" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="35" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>1988.5</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>2897.35</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>5223.25</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>7996.36</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f>SUM(C9:F9)</f>
         <v>18105.46</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>5215</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>8309.0499999999993</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>4287.9799999999996</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>9352.64</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f>SUM(C10:F10)</f>
         <v>27164.67</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>7832.97</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>11299.87</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>8264.81</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>13226.47</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <f>SUM(C11:F11)</f>
         <v>40624.120000000003</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>2337.81</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>2137.81</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>1237.81</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>3237.81</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f>SUM(C12:F12)</f>
         <v>8951.24</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>4336.37</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>1790.84</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <v>1206.77</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>1628.13</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <f>SUM(C13:F13)</f>
         <v>8962.11</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <f>SUM(C9:C13)</f>
         <v>21710.65</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <f>SUM(D9:D13)</f>
         <v>26434.920000000002</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <f>SUM(E9:E13)</f>
         <v>20220.620000000003</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <f>SUM(F9:F13)</f>
         <v>35441.409999999996</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <f>SUM(G9:G13)</f>
         <v>103807.6</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:17" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="39" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>12462.87</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>8256.9699999999993</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>10884.65</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <v>18995.599999999999</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <f>SUM(C18:F18)</f>
         <v>50600.09</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <v>2533.2399999999998</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>5855.47</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>8525.14</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <v>11253.21</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <f>SUM(C19:F19)</f>
         <v>28167.059999999998</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>8755.24</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="25">
         <v>7562.22</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="25">
         <v>5221.5600000000004</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="26">
         <v>3256.47</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <f>SUM(C20:F20)</f>
         <v>24795.49</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="28">
         <f>SUM(C18:C20)</f>
         <v>23751.35</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="28">
         <f>SUM(D18:D20)</f>
         <v>21674.66</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="28">
         <f>SUM(E18:E20)</f>
         <v>24631.350000000002</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <f>SUM(F18:F20)</f>
         <v>33505.279999999999</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <f>SUM(G18:G20)</f>
         <v>103562.64</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="45" t="s">
+      <c r="G24" s="44" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="31">
         <f>-C21+C14</f>
         <v>-2040.6999999999971</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <f t="shared" ref="D25:G25" si="0">-D21+D14</f>
         <v>4760.260000000002</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <f t="shared" si="0"/>
         <v>-4410.7299999999996</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="32">
         <f t="shared" si="0"/>
         <v>1936.1299999999974</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <f t="shared" si="0"/>
         <v>244.9600000000064</v>
       </c>
@@ -3111,10 +6349,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:Q28"/>
+  <dimension ref="B2:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -3125,331 +6363,351 @@
     <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:18" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
     </row>
-    <row r="3" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="3" spans="2:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
     </row>
-    <row r="5" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="60" t="s">
+    <row r="4" spans="2:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+    </row>
+    <row r="5" spans="2:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="59" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="63" t="s">
+    <row r="9" spans="2:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="63">
         <v>1988.5</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="63">
         <v>2897.35</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="63">
         <v>5223.25</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="63">
         <v>7996.36</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="63">
         <v>18105.46</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="63" t="s">
+    <row r="10" spans="2:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="63">
         <v>5215</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="63">
         <v>8309.0499999999993</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="63">
         <v>4287.9799999999996</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="63">
         <v>9352.64</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="63">
         <v>27164.67</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="63" t="s">
+    <row r="11" spans="2:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="63">
         <v>7832.97</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="63">
         <v>11299.87</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="63">
         <v>8264.81</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="63">
         <v>13226.47</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="63">
         <v>40624.120000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="63" t="s">
+    <row r="12" spans="2:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="63">
         <v>2337.81</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="63">
         <v>2137.81</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="63">
         <v>1237.81</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="63">
         <v>3237.81</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="63">
         <v>8951.24</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="63" t="s">
+    <row r="13" spans="2:18" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="63">
         <v>4336.37</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="63">
         <v>1790.84</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="63">
         <v>1206.77</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="63">
         <v>1628.13</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="63">
         <v>8962.11</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="70" t="s">
+    <row r="14" spans="2:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="70">
         <v>21710.65</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="70">
         <v>26434.920000000002</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="70">
         <v>20220.620000000003</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="70">
         <v>35441.409999999996</v>
       </c>
-      <c r="G14" s="71">
+      <c r="G14" s="70">
         <v>103807.6</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="60" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="65">
         <v>12462.87</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="65">
         <v>8256.9699999999993</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="65">
         <v>10884.65</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="65">
         <v>18995.599999999999</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="66">
         <v>50600.09</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="65">
         <v>2533.2399999999998</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="65">
         <v>5855.47</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="65">
         <v>8525.14</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="65">
         <v>11253.21</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="66">
         <v>28167.059999999998</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="65">
         <v>8755.24</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="65">
         <v>7562.22</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="65">
         <v>5221.5600000000004</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F20" s="65">
         <v>3256.47</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="66">
         <v>24795.49</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="72">
         <v>23751.35</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="72">
         <v>21674.66</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="72">
         <v>24631.350000000002</v>
       </c>
-      <c r="F21" s="73">
+      <c r="F21" s="72">
         <v>33505.279999999999</v>
       </c>
-      <c r="G21" s="72">
+      <c r="G21" s="71">
         <v>103562.64</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="62" t="s">
+      <c r="G24" s="61" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="69">
+      <c r="C25" s="68">
         <v>-2040.6999999999971</v>
       </c>
-      <c r="D25" s="69">
+      <c r="D25" s="68">
         <v>4760.260000000002</v>
       </c>
-      <c r="E25" s="69">
+      <c r="E25" s="68">
         <v>-4410.7299999999996</v>
       </c>
-      <c r="F25" s="69">
+      <c r="F25" s="68">
         <v>1936.1299999999974</v>
       </c>
-      <c r="G25" s="69">
+      <c r="G25" s="68">
         <v>244.96</v>
       </c>
     </row>
@@ -3457,8 +6715,13 @@
     <row r="27" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:R4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3472,81 +6735,81 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="2.77734375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" style="49" customWidth="1"/>
-    <col min="4" max="4" width="100" style="49" customWidth="1"/>
-    <col min="5" max="5" width="1.6640625" style="49" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="49"/>
+    <col min="1" max="1" width="1.6640625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="2.77734375" style="48" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="100" style="48" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" style="48" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C5" s="58"/>
-      <c r="D5" s="52" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="51" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C6" s="58"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="52" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C7" s="58"/>
-      <c r="D7" s="52" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="51" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="58"/>
-      <c r="D8" s="54" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="50"/>
+      <c r="C9" s="49"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="58"/>
-      <c r="D11" s="52" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="51" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="58"/>
-      <c r="D12" s="53" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="52" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="58"/>
-      <c r="D13" s="55" t="s">
+      <c r="C13" s="57"/>
+      <c r="D13" s="54" t="s">
         <v>23</v>
       </c>
     </row>
